--- a/biology/Botanique/Cota_(genre)/Cota_(genre).xlsx
+++ b/biology/Botanique/Cota_(genre)/Cota_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cota est un genre de plante à fleurs dicotylédones de la famille des Asteraceae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                  (16 mai 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                  (16 mai 2014) :
 Cota altissima
 Cota amblyolepis
 Cota antitaurica
@@ -539,15 +553,15 @@
 Cota tinctoria
 Cota triumfetti
 Cota wiedemanniana
-Selon GRIN            (16 mai 2014)[3] :
+Selon GRIN            (16 mai 2014) :
 Cota altissima (L.) J. Gay
 Cota austriaca (Jacq.) Sch. Bip.
 Cota saguramica (Sosn.) Lo Presti &amp; Oberpr.
 Cota tinctoria (L.) J. Gay
 Cota triumfettii (L.) J. Gay
-Selon ITIS      (16 mai 2014)[4] :
+Selon ITIS      (16 mai 2014) :
 Cota tinctoria (L.) J. Gay
-Selon The Plant List            (16 mai 2014)[5] :
+Selon The Plant List            (16 mai 2014) :
 Cota altissima (L.) J.Gay
 Cota amblyolepis (Eig) Holub
 Cota antitaurica (Grierson) Holub
@@ -573,7 +587,7 @@
 Cota tinctoria (L.) J.Gay
 Cota triumfetti (L.) J.Gay
 Cota wiedemanniana (Fisch. &amp; C.A.Mey.) Holub
-Selon Tropicos                                           (16 mai 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (16 mai 2014) (Attention liste brute contenant possiblement des synonymes) :
 Cota aligulata Losa
 Cota altissima J. Gay
 Cota austriaca J. Gay
